--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD390B-99CA-486B-B746-DC3429C4E602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D1D42D-7D46-4A62-AD40-B842495B73D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="places_visited" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="185">
   <si>
     <t>place/city</t>
   </si>
@@ -548,9 +548,6 @@
     <t>Marseille</t>
   </si>
   <si>
-    <t xml:space="preserve">St. Egyden </t>
-  </si>
-  <si>
     <t>Austria</t>
   </si>
   <si>
@@ -570,6 +567,15 @@
   </si>
   <si>
     <t>1977-</t>
+  </si>
+  <si>
+    <t>St. Egyden am Steinfeld</t>
+  </si>
+  <si>
+    <t>Visited during my city trip to Rome</t>
+  </si>
+  <si>
+    <t>Short stop on the way home from Senigallia</t>
   </si>
 </sst>
 </file>
@@ -1415,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E139"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1443,26 +1449,26 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1874,7 +1880,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -1882,10 +1888,10 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -2733,10 +2739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2763,13 +2769,13 @@
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2956,6 +2962,22 @@
       </c>
       <c r="B20" t="s">
         <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D1D42D-7D46-4A62-AD40-B842495B73D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF00F36-3CCA-49A2-A594-2FE50C031BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="184">
   <si>
     <t>place/city</t>
   </si>
@@ -564,9 +564,6 @@
   </si>
   <si>
     <t>home country</t>
-  </si>
-  <si>
-    <t>1977-</t>
   </si>
   <si>
     <t>St. Egyden am Steinfeld</t>
@@ -1449,7 +1446,7 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>175</v>
@@ -2741,8 +2738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2774,9 +2771,6 @@
       <c r="B2" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -2969,7 +2963,7 @@
         <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -2977,7 +2971,7 @@
         <v>151</v>
       </c>
       <c r="B22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF00F36-3CCA-49A2-A594-2FE50C031BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA8D1F-C90D-4BED-BB59-DCDD7AB784BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="places_visited" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="186">
   <si>
     <t>place/city</t>
   </si>
@@ -152,9 +152,6 @@
     <t>El Chalten</t>
   </si>
   <si>
-    <t>Los Altares</t>
-  </si>
-  <si>
     <t>La Serena</t>
   </si>
   <si>
@@ -573,6 +570,15 @@
   </si>
   <si>
     <t>Short stop on the way home from Senigallia</t>
+  </si>
+  <si>
+    <t>Campamento Circo de Los Altares</t>
+  </si>
+  <si>
+    <t>Campamento la playita</t>
+  </si>
+  <si>
+    <t>Piedra del Fraile</t>
   </si>
 </sst>
 </file>
@@ -1416,10 +1422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E139"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1446,170 +1452,170 @@
     </row>
     <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -1686,7 +1692,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -1853,18 +1859,18 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -1877,7 +1883,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s">
         <v>32</v>
@@ -1885,10 +1891,10 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -1957,15 +1963,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>44</v>
+        <v>183</v>
       </c>
       <c r="B65" t="s">
         <v>34</v>
@@ -1973,15 +1979,15 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>185</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
@@ -1989,7 +1995,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
@@ -1997,40 +2003,34 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>139</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
-        <v>127</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>49</v>
-      </c>
-      <c r="E71">
-        <v>2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2049,10 +2049,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2060,10 +2060,10 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2093,10 +2093,10 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2104,10 +2104,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2115,10 +2115,10 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2126,10 +2126,10 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2137,10 +2137,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -2148,10 +2148,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -2170,10 +2170,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E85">
         <v>2</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -2203,10 +2203,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E88">
         <v>2</v>
@@ -2214,10 +2214,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E89">
         <v>2</v>
@@ -2225,10 +2225,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E91">
         <v>2</v>
@@ -2247,32 +2247,32 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E92">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E94">
         <v>3</v>
@@ -2280,10 +2280,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B95" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -2291,10 +2291,10 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B96" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -2302,10 +2302,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E97">
         <v>3</v>
@@ -2313,10 +2313,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B98" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -2324,10 +2324,10 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -2346,10 +2346,10 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B101" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E101">
         <v>3</v>
@@ -2357,10 +2357,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E102">
         <v>3</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -2379,10 +2379,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B104" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B105" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E105">
         <v>3</v>
@@ -2401,10 +2401,10 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -2412,10 +2412,10 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -2423,10 +2423,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -2434,10 +2434,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E109">
         <v>3</v>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E110">
         <v>3</v>
@@ -2456,32 +2456,32 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -2500,10 +2500,10 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -2511,10 +2511,10 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B116" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -2522,10 +2522,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -2533,10 +2533,10 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -2544,10 +2544,10 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -2555,10 +2555,10 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B120" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -2566,10 +2566,10 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B121" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -2577,10 +2577,10 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B122" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -2588,10 +2588,10 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -2599,10 +2599,10 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -2610,122 +2610,144 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
-        <v>104</v>
+        <v>48</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
-        <v>104</v>
+        <v>48</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B128" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B130" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B131" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B132" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="B136" t="s">
-        <v>154</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
-        <v>155</v>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2738,7 +2760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -2755,21 +2777,21 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -2777,7 +2799,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C3">
         <v>1999</v>
@@ -2788,10 +2810,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -2799,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>1992</v>
@@ -2810,7 +2832,7 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6">
         <v>2001</v>
@@ -2821,7 +2843,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C7">
         <v>2002</v>
@@ -2832,13 +2854,13 @@
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8">
         <v>2008</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -2846,62 +2868,62 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C9">
         <v>2008</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14">
         <v>1993</v>
@@ -2909,34 +2931,34 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" t="s">
         <v>132</v>
-      </c>
-      <c r="B17" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" t="s">
         <v>141</v>
-      </c>
-      <c r="B18" t="s">
-        <v>142</v>
       </c>
       <c r="C18">
         <v>1994</v>
@@ -2944,34 +2966,34 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
         <v>155</v>
-      </c>
-      <c r="B20" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFA8D1F-C90D-4BED-BB59-DCDD7AB784BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1400299F-5938-401C-8C99-1D6FD2FD2581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1974,7 +1974,7 @@
         <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1400299F-5938-401C-8C99-1D6FD2FD2581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE2981-240F-4929-8A7B-7DB296DEEFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1974,7 +1974,7 @@
         <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEAE2981-240F-4929-8A7B-7DB296DEEFD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7937C0EC-7AAE-4839-A8EA-B53A3CA4FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="187">
   <si>
     <t>place/city</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t>Piedra del Fraile</t>
+  </si>
+  <si>
+    <t>Paso del Viento</t>
   </si>
 </sst>
 </file>
@@ -1422,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1987,15 +1990,15 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
@@ -2011,7 +2014,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
@@ -2019,26 +2022,23 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>48</v>
-      </c>
-      <c r="E72">
-        <v>2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -2049,7 +2049,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
         <v>48</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
         <v>48</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
@@ -2269,18 +2269,18 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
         <v>48</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
         <v>48</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B99" t="s">
         <v>48</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B101" t="s">
         <v>48</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B103" t="s">
         <v>48</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B104" t="s">
         <v>48</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B105" t="s">
         <v>48</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
         <v>48</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
         <v>48</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
         <v>48</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -2478,18 +2478,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
         <v>48</v>
@@ -2500,7 +2500,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B115" t="s">
         <v>48</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
         <v>48</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
         <v>48</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B120" t="s">
         <v>48</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B122" t="s">
         <v>48</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B123" t="s">
         <v>48</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
         <v>48</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
         <v>48</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B126" t="s">
         <v>48</v>
@@ -2632,15 +2632,18 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>48</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B128" t="s">
         <v>103</v>
@@ -2648,7 +2651,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B129" t="s">
         <v>103</v>
@@ -2656,7 +2659,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B130" t="s">
         <v>103</v>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B131" t="s">
         <v>103</v>
@@ -2672,7 +2675,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B132" t="s">
         <v>103</v>
@@ -2680,15 +2683,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B133" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B134" t="s">
         <v>110</v>
@@ -2696,15 +2699,15 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -2712,15 +2715,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="B137" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B138" t="s">
         <v>153</v>
@@ -2728,7 +2731,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
         <v>153</v>
@@ -2736,17 +2739,25 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
+        <v>160</v>
+      </c>
+      <c r="B141" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
         <v>161</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>154</v>
       </c>
     </row>

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7937C0EC-7AAE-4839-A8EA-B53A3CA4FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6AF91-B9E1-48D9-8969-510EF8257077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="188">
   <si>
     <t>place/city</t>
   </si>
@@ -582,6 +582,9 @@
   </si>
   <si>
     <t>Paso del Viento</t>
+  </si>
+  <si>
+    <t>Refugio Garcia Soto</t>
   </si>
 </sst>
 </file>
@@ -1425,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1990,23 +1993,23 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
@@ -2014,7 +2017,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
@@ -2022,7 +2025,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
@@ -2030,26 +2033,23 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>138</v>
       </c>
       <c r="B73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E73">
-        <v>2</v>
+        <v>126</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B89" t="s">
         <v>48</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B92" t="s">
         <v>48</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
@@ -2280,18 +2280,18 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B97" t="s">
         <v>48</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B98" t="s">
         <v>48</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
         <v>48</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B101" t="s">
         <v>48</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B103" t="s">
         <v>48</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B104" t="s">
         <v>48</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B105" t="s">
         <v>48</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B106" t="s">
         <v>48</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B107" t="s">
         <v>48</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B111" t="s">
         <v>48</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
@@ -2489,18 +2489,18 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B114" t="s">
         <v>48</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B115" t="s">
         <v>48</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B118" t="s">
         <v>48</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B119" t="s">
         <v>48</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
         <v>48</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B122" t="s">
         <v>48</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B123" t="s">
         <v>48</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B124" t="s">
         <v>48</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B125" t="s">
         <v>48</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B126" t="s">
         <v>48</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B127" t="s">
         <v>48</v>
@@ -2643,15 +2643,18 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B128" t="s">
-        <v>103</v>
+        <v>48</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B129" t="s">
         <v>103</v>
@@ -2659,7 +2662,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B130" t="s">
         <v>103</v>
@@ -2667,7 +2670,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B131" t="s">
         <v>103</v>
@@ -2675,7 +2678,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B132" t="s">
         <v>103</v>
@@ -2683,7 +2686,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B133" t="s">
         <v>103</v>
@@ -2691,15 +2694,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B134" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B135" t="s">
         <v>110</v>
@@ -2707,15 +2710,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -2723,15 +2726,15 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="B138" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B139" t="s">
         <v>153</v>
@@ -2739,7 +2742,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B140" t="s">
         <v>153</v>
@@ -2747,17 +2750,25 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B141" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
         <v>161</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
         <v>154</v>
       </c>
     </row>

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC6AF91-B9E1-48D9-8969-510EF8257077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC947E0-C365-4758-918E-E76D52EEF183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="187">
   <si>
     <t>place/city</t>
   </si>
@@ -582,9 +582,6 @@
   </si>
   <si>
     <t>Paso del Viento</t>
-  </si>
-  <si>
-    <t>Refugio Garcia Soto</t>
   </si>
 </sst>
 </file>
@@ -1428,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1993,23 +1990,23 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
@@ -2017,7 +2014,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
@@ -2025,7 +2022,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
         <v>34</v>
@@ -2033,23 +2030,26 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B73" t="s">
-        <v>126</v>
+        <v>48</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -2115,7 +2115,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -2137,7 +2137,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
@@ -2181,7 +2181,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
@@ -2192,7 +2192,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B89" t="s">
         <v>48</v>
@@ -2225,7 +2225,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B92" t="s">
         <v>48</v>
@@ -2258,7 +2258,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
@@ -2269,7 +2269,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
@@ -2280,18 +2280,18 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
       </c>
       <c r="E95">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -2302,7 +2302,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B97" t="s">
         <v>48</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
         <v>48</v>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B99" t="s">
         <v>48</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
@@ -2346,7 +2346,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B101" t="s">
         <v>48</v>
@@ -2357,7 +2357,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B103" t="s">
         <v>48</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B104" t="s">
         <v>48</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B105" t="s">
         <v>48</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B106" t="s">
         <v>48</v>
@@ -2412,7 +2412,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
         <v>48</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B111" t="s">
         <v>48</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -2478,7 +2478,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
@@ -2489,18 +2489,18 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B114" t="s">
         <v>48</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B115" t="s">
         <v>48</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
@@ -2533,7 +2533,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B118" t="s">
         <v>48</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
         <v>48</v>
@@ -2555,7 +2555,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B120" t="s">
         <v>48</v>
@@ -2566,7 +2566,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B122" t="s">
         <v>48</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B123" t="s">
         <v>48</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B124" t="s">
         <v>48</v>
@@ -2610,7 +2610,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B125" t="s">
         <v>48</v>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B126" t="s">
         <v>48</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B127" t="s">
         <v>48</v>
@@ -2643,18 +2643,15 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
-      </c>
-      <c r="E128">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B129" t="s">
         <v>103</v>
@@ -2662,7 +2659,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B130" t="s">
         <v>103</v>
@@ -2670,7 +2667,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B131" t="s">
         <v>103</v>
@@ -2678,7 +2675,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B132" t="s">
         <v>103</v>
@@ -2686,7 +2683,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B133" t="s">
         <v>103</v>
@@ -2694,15 +2691,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B135" t="s">
         <v>110</v>
@@ -2710,15 +2707,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B136" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
@@ -2726,15 +2723,15 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B139" t="s">
         <v>153</v>
@@ -2742,7 +2739,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B140" t="s">
         <v>153</v>
@@ -2750,25 +2747,17 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B141" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>161</v>
-      </c>
-      <c r="B143" t="s">
         <v>154</v>
       </c>
     </row>

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC947E0-C365-4758-918E-E76D52EEF183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CE7E1-B8EF-448C-83DF-128A007D86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1427,13 +1427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:XFD67"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1977,7 +1977,7 @@
         <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\python_projects\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{107CE7E1-B8EF-448C-83DF-128A007D86D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58979A11-0E1F-4E82-8325-668B9AB19EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="186">
   <si>
     <t>place/city</t>
   </si>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>Short stop on the way home from Senigallia</t>
-  </si>
-  <si>
-    <t>Campamento Circo de Los Altares</t>
   </si>
   <si>
     <t>Campamento la playita</t>
@@ -1065,11 +1062,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1425,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E142"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1436,44 +1431,44 @@
     <col min="1" max="1" width="30.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -1694,7 +1689,7 @@
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>114</v>
       </c>
       <c r="B32" t="s">
@@ -1966,7 +1961,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B64" t="s">
         <v>37</v>
@@ -1974,7 +1969,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B65" t="s">
         <v>37</v>
@@ -1990,15 +1985,15 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
@@ -2006,7 +2001,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
@@ -2014,7 +2009,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B70" t="s">
         <v>34</v>
@@ -2022,23 +2017,26 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B72" t="s">
-        <v>126</v>
+        <v>48</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -2049,7 +2047,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -2060,7 +2058,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -2071,7 +2069,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -2082,7 +2080,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -2093,7 +2091,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -2104,7 +2102,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -2115,7 +2113,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -2126,7 +2124,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -2137,7 +2135,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -2148,7 +2146,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
@@ -2159,7 +2157,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
@@ -2170,7 +2168,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
@@ -2181,7 +2179,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
@@ -2192,7 +2190,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -2203,7 +2201,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
@@ -2214,7 +2212,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B89" t="s">
         <v>48</v>
@@ -2225,7 +2223,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
@@ -2236,7 +2234,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
@@ -2247,7 +2245,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
         <v>48</v>
@@ -2258,7 +2256,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
@@ -2269,18 +2267,18 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
       <c r="E94">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
@@ -2291,7 +2289,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -2302,7 +2300,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
         <v>48</v>
@@ -2313,7 +2311,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B98" t="s">
         <v>48</v>
@@ -2324,7 +2322,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B99" t="s">
         <v>48</v>
@@ -2335,7 +2333,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
@@ -2346,7 +2344,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B101" t="s">
         <v>48</v>
@@ -2357,7 +2355,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
@@ -2368,7 +2366,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B103" t="s">
         <v>48</v>
@@ -2379,7 +2377,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B104" t="s">
         <v>48</v>
@@ -2390,7 +2388,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B105" t="s">
         <v>48</v>
@@ -2401,7 +2399,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
         <v>48</v>
@@ -2412,7 +2410,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B107" t="s">
         <v>48</v>
@@ -2423,7 +2421,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -2434,7 +2432,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -2445,7 +2443,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
@@ -2456,7 +2454,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B111" t="s">
         <v>48</v>
@@ -2467,7 +2465,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
@@ -2478,18 +2476,18 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B114" t="s">
         <v>48</v>
@@ -2500,7 +2498,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B115" t="s">
         <v>48</v>
@@ -2511,7 +2509,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -2522,7 +2520,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
@@ -2533,7 +2531,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
         <v>48</v>
@@ -2544,7 +2542,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B119" t="s">
         <v>48</v>
@@ -2555,7 +2553,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B120" t="s">
         <v>48</v>
@@ -2566,7 +2564,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
@@ -2577,7 +2575,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B122" t="s">
         <v>48</v>
@@ -2588,7 +2586,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B123" t="s">
         <v>48</v>
@@ -2599,7 +2597,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B124" t="s">
         <v>48</v>
@@ -2610,7 +2608,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B125" t="s">
         <v>48</v>
@@ -2621,7 +2619,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B126" t="s">
         <v>48</v>
@@ -2632,18 +2630,15 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
-      </c>
-      <c r="E127">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B128" t="s">
         <v>103</v>
@@ -2651,7 +2646,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B129" t="s">
         <v>103</v>
@@ -2659,7 +2654,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B130" t="s">
         <v>103</v>
@@ -2667,7 +2662,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B131" t="s">
         <v>103</v>
@@ -2675,7 +2670,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B132" t="s">
         <v>103</v>
@@ -2683,15 +2678,15 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B134" t="s">
         <v>110</v>
@@ -2699,15 +2694,15 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B135" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
@@ -2715,15 +2710,15 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B138" t="s">
         <v>153</v>
@@ -2731,7 +2726,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B139" t="s">
         <v>153</v>
@@ -2739,25 +2734,17 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B140" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B141" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" t="s">
-        <v>161</v>
-      </c>
-      <c r="B142" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2783,25 +2770,25 @@
     <col min="4" max="4" width="43.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2870,7 +2857,7 @@
       <c r="C8">
         <v>2008</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2884,7 +2871,7 @@
       <c r="C9">
         <v>2008</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2898,7 +2885,7 @@
       <c r="C10" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>164</v>
       </c>
     </row>

--- a/places_visited.xlsx
+++ b/places_visited.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lena\Desktop\python_projects\pyladies\data_course\pyladies_vienna_data_course\streamlit_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58979A11-0E1F-4E82-8325-668B9AB19EF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A30A9D-1678-4022-B474-B91070829DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="185">
   <si>
     <t>place/city</t>
   </si>
@@ -570,9 +570,6 @@
   </si>
   <si>
     <t>Short stop on the way home from Senigallia</t>
-  </si>
-  <si>
-    <t>Campamento la playita</t>
   </si>
   <si>
     <t>Piedra del Fraile</t>
@@ -1420,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1977,15 +1974,15 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>43</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B67" t="s">
         <v>34</v>
@@ -1993,7 +1990,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B68" t="s">
         <v>34</v>
@@ -2001,7 +1998,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B69" t="s">
         <v>34</v>
@@ -2009,23 +2006,26 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>47</v>
       </c>
       <c r="B71" t="s">
-        <v>126</v>
+        <v>48</v>
+      </c>
+      <c r="E71">
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -2036,7 +2036,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B73" t="s">
         <v>48</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B74" t="s">
         <v>48</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
         <v>48</v>
@@ -2069,7 +2069,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
         <v>48</v>
@@ -2080,7 +2080,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
         <v>48</v>
@@ -2091,7 +2091,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B78" t="s">
         <v>48</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B79" t="s">
         <v>48</v>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s">
         <v>48</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s">
         <v>48</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B82" t="s">
         <v>48</v>
@@ -2146,7 +2146,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
         <v>48</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
         <v>48</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B86" t="s">
         <v>48</v>
@@ -2190,7 +2190,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B88" t="s">
         <v>48</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
         <v>48</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B91" t="s">
         <v>48</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B92" t="s">
         <v>48</v>
@@ -2256,18 +2256,18 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="B93" t="s">
         <v>48</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
@@ -2300,7 +2300,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B97" t="s">
         <v>48</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B98" t="s">
         <v>48</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B99" t="s">
         <v>48</v>
@@ -2333,7 +2333,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B100" t="s">
         <v>48</v>
@@ -2344,7 +2344,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B101" t="s">
         <v>48</v>
@@ -2355,7 +2355,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B102" t="s">
         <v>48</v>
@@ -2366,7 +2366,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B103" t="s">
         <v>48</v>
@@ -2377,7 +2377,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B104" t="s">
         <v>48</v>
@@ -2388,7 +2388,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
         <v>48</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B106" t="s">
         <v>48</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B107" t="s">
         <v>48</v>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B108" t="s">
         <v>48</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B109" t="s">
         <v>48</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B110" t="s">
         <v>48</v>
@@ -2454,7 +2454,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B111" t="s">
         <v>48</v>
@@ -2465,18 +2465,18 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B113" t="s">
         <v>48</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B114" t="s">
         <v>48</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B115" t="s">
         <v>48</v>
@@ -2509,7 +2509,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
@@ -2520,7 +2520,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
         <v>48</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B118" t="s">
         <v>48</v>
@@ -2542,7 +2542,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B119" t="s">
         <v>48</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B120" t="s">
         <v>48</v>
@@ -2564,7 +2564,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B121" t="s">
         <v>48</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B122" t="s">
         <v>48</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B123" t="s">
         <v>48</v>
@@ -2597,7 +2597,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B124" t="s">
         <v>48</v>
@@ -2608,7 +2608,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B125" t="s">
         <v>48</v>
@@ -2619,18 +2619,15 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
-      </c>
-      <c r="E126">
-        <v>1</v>
+        <v>103</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B127" t="s">
         <v>103</v>
@@ -2638,7 +2635,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B128" t="s">
         <v>103</v>
@@ -2646,7 +2643,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B129" t="s">
         <v>103</v>
@@ -2654,7 +2651,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B130" t="s">
         <v>103</v>
@@ -2662,7 +2659,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B131" t="s">
         <v>103</v>
@@ -2670,15 +2667,15 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B133" t="s">
         <v>110</v>
@@ -2686,15 +2683,15 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B134" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
@@ -2702,15 +2699,15 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
         <v>153</v>
@@ -2718,7 +2715,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
         <v>153</v>
@@ -2726,25 +2723,17 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" t="s">
-        <v>161</v>
-      </c>
-      <c r="B141" t="s">
         <v>154</v>
       </c>
     </row>
